--- a/ESP8266_PLATE.xlsx
+++ b/ESP8266_PLATE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAN\Documents\Arduino\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63FA15B-585B-424B-A558-BD96623260CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68015F2-F22C-4B7F-8032-4B8145BF367E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9A222C80-A1BC-4D05-8603-7CCA5A65F657}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>SDA</t>
   </si>
@@ -174,6 +174,15 @@
       </rPr>
       <t xml:space="preserve"> (vijola barve)</t>
     </r>
+  </si>
+  <si>
+    <t>1x4 pin</t>
+  </si>
+  <si>
+    <t>1x3 pin</t>
+  </si>
+  <si>
+    <t>1x2 pin</t>
   </si>
 </sst>
 </file>
@@ -256,17 +265,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -542,6 +540,17 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -557,31 +566,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,20 +601,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,15 +855,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -868,9 +877,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1600201" y="1304925"/>
-          <a:ext cx="4333874" cy="123825"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1609725" y="1038225"/>
+          <a:ext cx="4324350" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -900,16 +909,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257176</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>57151</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -923,9 +932,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1590676" y="1190625"/>
-          <a:ext cx="4610099" cy="66676"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1600200" y="904875"/>
+          <a:ext cx="4600576" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -956,15 +965,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -979,8 +988,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1609725" y="352425"/>
-          <a:ext cx="1962150" cy="723901"/>
+          <a:off x="1619250" y="561975"/>
+          <a:ext cx="1952625" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1014,15 +1023,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1036,9 +1045,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1609725" y="371475"/>
-          <a:ext cx="2247900" cy="542926"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1619250" y="514350"/>
+          <a:ext cx="2238375" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1347,9 +1356,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
@@ -1370,8 +1379,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1895475" y="4581525"/>
-          <a:ext cx="4038600" cy="76200"/>
+          <a:off x="1866900" y="4210050"/>
+          <a:ext cx="4067175" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1403,14 +1412,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>57152</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1424,9 +1433,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1876425" y="4543425"/>
-          <a:ext cx="4324351" cy="285750"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1876425" y="4400550"/>
+          <a:ext cx="4324352" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1457,15 +1466,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1480,8 +1489,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1866900" y="3695700"/>
-          <a:ext cx="1704975" cy="504825"/>
+          <a:off x="1895475" y="3686175"/>
+          <a:ext cx="1676401" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1515,15 +1524,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>123827</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>123829</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1538,8 +1547,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1866900" y="3714750"/>
-          <a:ext cx="1990727" cy="685800"/>
+          <a:off x="1876425" y="3705225"/>
+          <a:ext cx="1981204" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1927,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC614FDA-2AD8-4120-881A-200EABE1C999}">
   <dimension ref="B2:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,237 +1946,233 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="32" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="33">
+      <c r="Q3" s="32">
         <v>12</v>
       </c>
-      <c r="R3" s="33">
+      <c r="R3" s="32">
         <v>15</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="3"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="2"/>
       <c r="AE3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="I4" s="19"/>
-      <c r="S4" s="20"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="23" t="s">
+      <c r="B4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="S4" s="19"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="5"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="4"/>
       <c r="AE4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4"/>
-      <c r="I5" s="19"/>
-      <c r="S5" s="20"/>
-      <c r="V5" s="19"/>
-      <c r="X5" s="10" t="s">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="S5" s="19"/>
+      <c r="V5" s="18"/>
+      <c r="X5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="5"/>
-    </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="S6" s="21" t="s">
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="4"/>
+    </row>
+    <row r="6" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="S6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="V6" s="19"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="5"/>
+      <c r="V6" s="18"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="4"/>
     </row>
     <row r="7" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="S7" s="21" t="s">
+      <c r="B7" s="38"/>
+      <c r="I7" s="18"/>
+      <c r="S7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="15"/>
-      <c r="W7" s="37" t="s">
+      <c r="V7" s="14"/>
+      <c r="W7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="37" t="s">
+      <c r="X7" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Y7" s="37" t="s">
+      <c r="Y7" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="5"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="28" t="s">
+      <c r="B8" s="3"/>
+      <c r="I8" s="18"/>
+      <c r="S8" s="19"/>
+      <c r="W8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="S8" s="20"/>
-      <c r="W8" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="X8" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="5"/>
+      <c r="AA8" s="4"/>
       <c r="AB8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="29" t="s">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="I9" s="18"/>
+      <c r="S9" s="19"/>
+      <c r="W9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="I10" s="18"/>
+      <c r="S10" s="19"/>
+      <c r="AA10" s="4"/>
+    </row>
+    <row r="11" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="I11" s="18"/>
+      <c r="S11" s="19"/>
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="I12" s="18"/>
+      <c r="S12" s="19"/>
+      <c r="W12" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="S9" s="20"/>
-      <c r="W9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="X9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA9" s="5"/>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="I10" s="19"/>
-      <c r="S10" s="20"/>
-      <c r="AA10" s="5"/>
-    </row>
-    <row r="11" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="I11" s="19"/>
-      <c r="S11" s="20"/>
-      <c r="AA11" s="5"/>
-    </row>
-    <row r="12" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4"/>
-      <c r="I12" s="19"/>
-      <c r="S12" s="20"/>
-      <c r="W12" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="X12" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA12" s="5"/>
+      <c r="AA12" s="4"/>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="I13" s="19"/>
-      <c r="S13" s="20"/>
-      <c r="AA13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="I13" s="18"/>
+      <c r="S13" s="19"/>
+      <c r="AA13" s="4"/>
     </row>
     <row r="14" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="35" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="35" t="s">
+      <c r="M14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="35" t="s">
+      <c r="N14" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="35" t="s">
+      <c r="O14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P14" s="35" t="s">
+      <c r="P14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="35" t="s">
+      <c r="Q14" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="35" t="s">
+      <c r="R14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S14" s="36" t="s">
+      <c r="S14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7" t="s">
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="8"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="7"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="N15" t="s">
@@ -2175,241 +2180,245 @@
       </c>
     </row>
     <row r="18" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="32" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="N19" s="33" t="s">
+      <c r="N19" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="O19" s="33" t="s">
+      <c r="O19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="P19" s="33" t="s">
+      <c r="P19" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="Q19" s="33">
+      <c r="Q19" s="32">
         <v>12</v>
       </c>
-      <c r="R19" s="33">
+      <c r="R19" s="32">
         <v>15</v>
       </c>
-      <c r="S19" s="34" t="s">
+      <c r="S19" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="3"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="2"/>
       <c r="AE19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="I20" s="19"/>
-      <c r="S20" s="20"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="23" t="s">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="G20" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="S20" s="19"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="5"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="4"/>
       <c r="AE20" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="24"/>
-      <c r="I21" s="19"/>
-      <c r="S21" s="20"/>
-      <c r="V21" s="19"/>
-      <c r="X21" s="10" t="s">
+      <c r="B21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="S21" s="19"/>
+      <c r="V21" s="18"/>
+      <c r="X21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="5"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="4"/>
+      <c r="AE21" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="G22" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="S22" s="21" t="s">
+      <c r="B22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="S22" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="V22" s="19"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="5"/>
+      <c r="V22" s="18"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="4"/>
+      <c r="AE22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="23" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="S23" s="21" t="s">
+      <c r="B23" s="18"/>
+      <c r="G23" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="S23" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V23" s="15"/>
-      <c r="W23" s="37" t="s">
+      <c r="V23" s="14"/>
+      <c r="W23" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="X23" s="37" t="s">
+      <c r="X23" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Y23" s="37" t="s">
+      <c r="Y23" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="5"/>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="S24" s="20"/>
-      <c r="W24" s="22" t="s">
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="4"/>
+      <c r="AE23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="24"/>
+      <c r="I24" s="18"/>
+      <c r="S24" s="19"/>
+      <c r="W24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="X24" s="22" t="s">
+      <c r="X24" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AA24" s="5"/>
+      <c r="AA24" s="4"/>
       <c r="AB24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="G25" s="28" t="s">
+      <c r="B25" s="38"/>
+      <c r="I25" s="18"/>
+      <c r="S25" s="19"/>
+      <c r="W25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="S25" s="20"/>
-      <c r="W25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="X25" s="11" t="s">
+      <c r="AA25" s="4"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="I26" s="18"/>
+      <c r="S26" s="19"/>
+      <c r="AA26" s="4"/>
+    </row>
+    <row r="27" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3"/>
+      <c r="I27" s="18"/>
+      <c r="S27" s="19"/>
+      <c r="AA27" s="4"/>
+    </row>
+    <row r="28" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="3"/>
+      <c r="I28" s="18"/>
+      <c r="S28" s="19"/>
+      <c r="W28" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AA25" s="5"/>
-    </row>
-    <row r="26" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="25"/>
-      <c r="I26" s="19"/>
-      <c r="S26" s="20"/>
-      <c r="AA26" s="5"/>
-    </row>
-    <row r="27" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="4"/>
-      <c r="I27" s="19"/>
-      <c r="S27" s="20"/>
-      <c r="AA27" s="5"/>
-    </row>
-    <row r="28" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="I28" s="19"/>
-      <c r="S28" s="20"/>
-      <c r="W28" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="X28" s="31" t="s">
+      <c r="X28" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AA28" s="5"/>
+      <c r="AA28" s="4"/>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="I29" s="19"/>
-      <c r="S29" s="20"/>
-      <c r="AA29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="I29" s="18"/>
+      <c r="S29" s="19"/>
+      <c r="AA29" s="4"/>
     </row>
     <row r="30" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="35" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="35" t="s">
+      <c r="M30" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="N30" s="35" t="s">
+      <c r="N30" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="O30" s="35" t="s">
+      <c r="O30" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="P30" s="35" t="s">
+      <c r="P30" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="35" t="s">
+      <c r="Q30" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="R30" s="35" t="s">
+      <c r="R30" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S30" s="36" t="s">
+      <c r="S30" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7" t="s">
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="8"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="7"/>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="N31" t="s">
